--- a/Textbooks, projects/Applied Math/labs/lab_2/var_9/lab_2_var_9.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_2/var_9/lab_2_var_9.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB8B106-0823-439D-AC12-42F172D0C109}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F260893-ED3B-4EAD-92DD-7B880C4CF4CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="12510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -2416,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,15 +2482,15 @@
         <v>2.25</v>
       </c>
       <c r="S2">
-        <f>(2*SIN(8*P2))/3+(3*COS(P2))/4</f>
+        <f t="shared" ref="S2:U3" si="0">(2*SIN(8*P2))/3+(3*COS(P2))/4</f>
         <v>-0.50404567185373372</v>
       </c>
       <c r="T2">
-        <f>(2*SIN(8*Q2))/3+(3*COS(Q2))/4</f>
+        <f t="shared" si="0"/>
         <v>7.7724554915514776E-3</v>
       </c>
       <c r="U2">
-        <f>(2*SIN(8*R2))/3+(3*COS(R2))/4</f>
+        <f t="shared" si="0"/>
         <v>-0.97178838155650504</v>
       </c>
       <c r="V2">
@@ -2510,7 +2510,7 @@
         <v>-3.5</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B18" si="0">(2*SIN(8*A3))/3+(3*COS(A3))/4</f>
+        <f t="shared" ref="B3:B18" si="1">(2*SIN(8*A3))/3+(3*COS(A3))/4</f>
         <v>-0.88294637434000989</v>
       </c>
       <c r="P3">
@@ -2526,19 +2526,19 @@
         <v>2.375</v>
       </c>
       <c r="S3">
-        <f>(2*SIN(8*P3))/3+(3*COS(P3))/4</f>
+        <f t="shared" si="0"/>
         <v>-0.97178838155650504</v>
       </c>
       <c r="T3">
-        <f>(2*SIN(8*Q3))/3+(3*COS(Q3))/4</f>
+        <f t="shared" si="0"/>
         <v>7.7724554915514776E-3</v>
       </c>
       <c r="U3">
-        <f>(2*SIN(8*R3))/3+(3*COS(R3))/4</f>
+        <f t="shared" si="0"/>
         <v>-0.44029071381721724</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3" si="1">ABS(P3-R3)</f>
+        <f t="shared" ref="V3" si="2">ABS(P3-R3)</f>
         <v>0.125</v>
       </c>
       <c r="W3" t="str">
@@ -2571,59 +2571,59 @@
         <v>-3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.13877546444591815</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P12" si="2">IF(S3*U3&gt;0,R3,P3)</f>
+        <f t="shared" ref="P4:P10" si="3">IF(S3*U3&gt;0,R3,P3)</f>
         <v>2.375</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q12" si="3">IF(T3*U3&gt;0,R3,Q3)</f>
+        <f t="shared" ref="Q4:Q10" si="4">IF(T3*U3&gt;0,R3,Q3)</f>
         <v>2.5</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R12" si="4">(P4+Q4)/2</f>
+        <f t="shared" ref="R4:R10" si="5">(P4+Q4)/2</f>
         <v>2.4375</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S12" si="5">(2*SIN(8*P4))/3+(3*COS(P4))/4</f>
+        <f t="shared" ref="S4:S10" si="6">(2*SIN(8*P4))/3+(3*COS(P4))/4</f>
         <v>-0.44029071381721724</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T12" si="6">(2*SIN(8*Q4))/3+(3*COS(Q4))/4</f>
+        <f t="shared" ref="T4:T10" si="7">(2*SIN(8*Q4))/3+(3*COS(Q4))/4</f>
         <v>7.7724554915514776E-3</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U12" si="7">(2*SIN(8*R4))/3+(3*COS(R4))/4</f>
+        <f t="shared" ref="U4:U10" si="8">(2*SIN(8*R4))/3+(3*COS(R4))/4</f>
         <v>-0.16795617552638697</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V12" si="8">ABS(P4-R4)</f>
+        <f t="shared" ref="V4:V10" si="9">ABS(P4-R4)</f>
         <v>6.25E-2</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" ref="W4:W12" si="9">IF(V4&gt;0.001,"no","yes")</f>
+        <f t="shared" ref="W4:W10" si="10">IF(V4&gt;0.001,"no","yes")</f>
         <v>no</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X11" si="10">X3-Y4/Z4</f>
+        <f t="shared" ref="X4" si="11">X3-Y4/Z4</f>
         <v>2.4957042613581466</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y11" si="11">(2*SIN(8*X3))/3+(3*COS(X3))/4</f>
+        <f t="shared" ref="Y4" si="12">(2*SIN(8*X3))/3+(3*COS(X3))/4</f>
         <v>-3.8599207209821795E-4</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z11" si="12">(16*COS(8*X3))/3-(3*SIN(X3))/4</f>
+        <f t="shared" ref="Z4" si="13">(16*COS(8*X3))/3-(3*SIN(X3))/4</f>
         <v>1.8986852425984531</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA11" si="13">ABS(X4-X3)</f>
+        <f t="shared" ref="AA4" si="14">ABS(X4-X3)</f>
         <v>2.0329439732202914E-4</v>
       </c>
       <c r="AB4" t="str">
-        <f t="shared" ref="AB4:AB11" si="14">IF(AA4&gt;0.001,"no","yes")</f>
+        <f t="shared" ref="AB4" si="15">IF(AA4&gt;0.001,"no","yes")</f>
         <v>yes</v>
       </c>
     </row>
@@ -2632,39 +2632,39 @@
         <v>-2.5</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2094878788119521</v>
       </c>
       <c r="P5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4375</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="R5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.46875</v>
       </c>
       <c r="S5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.16795617552638697</v>
       </c>
       <c r="T5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7724554915514776E-3</v>
       </c>
       <c r="U5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-6.4138022663081995E-2</v>
       </c>
       <c r="V5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.125E-2</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>no</v>
       </c>
     </row>
@@ -2673,39 +2673,39 @@
         <v>-2</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.12017458296697994</v>
       </c>
       <c r="P6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.46875</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="R6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.484375</v>
       </c>
       <c r="S6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.4138022663081995E-2</v>
       </c>
       <c r="T6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7724554915514776E-3</v>
       </c>
       <c r="U6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.380822231257973E-2</v>
       </c>
       <c r="V6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5625E-2</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>no</v>
       </c>
     </row>
@@ -2714,39 +2714,39 @@
         <v>-1.5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41076817991773379</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.484375</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="R7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4921875</v>
       </c>
       <c r="S7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.380822231257973E-2</v>
       </c>
       <c r="T7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7724554915514776E-3</v>
       </c>
       <c r="U7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-6.8832661904860704E-3</v>
       </c>
       <c r="V7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.8125E-3</v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>no</v>
       </c>
     </row>
@@ -2755,39 +2755,39 @@
         <v>-1</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.25434543501448303</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4921875</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="R8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.49609375</v>
       </c>
       <c r="S8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.8832661904860704E-3</v>
       </c>
       <c r="T8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7724554915514776E-3</v>
       </c>
       <c r="U8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.3288710530194923E-4</v>
       </c>
       <c r="V8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.90625E-3</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>no</v>
       </c>
     </row>
@@ -2796,39 +2796,39 @@
         <v>-0.5</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1627219182897317</v>
       </c>
       <c r="P9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4921875</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.49609375</v>
       </c>
       <c r="R9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.494140625</v>
       </c>
       <c r="S9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.8832661904860704E-3</v>
       </c>
       <c r="T9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.3288710530194923E-4</v>
       </c>
       <c r="U9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.0036741031256309E-3</v>
       </c>
       <c r="V9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.953125E-3</v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>no</v>
       </c>
     </row>
@@ -2837,39 +2837,39 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.494140625</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.49609375</v>
       </c>
       <c r="R10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4951171875</v>
       </c>
       <c r="S10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.0036741031256309E-3</v>
       </c>
       <c r="T10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.3288710530194923E-4</v>
       </c>
       <c r="U10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.1174435367536928E-3</v>
       </c>
       <c r="V10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.765625E-4</v>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>yes</v>
       </c>
     </row>
@@ -2878,7 +2878,7 @@
         <v>0.5</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15365192454582743</v>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0647988938166928</v>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
         <v>1.5</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.30466237741617946</v>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.50404567185373372</v>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
         <v>2.5</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7724554915514776E-3</v>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3462132804547502</v>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
         <v>3.5</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.52173865659618457</v>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.12261492815324859</v>
       </c>
     </row>
@@ -2987,145 +2987,145 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P26">
-        <f t="shared" ref="P26:P33" si="15">P25-Q26/$R$24</f>
+        <f t="shared" ref="P26:P33" si="16">P25-Q26/$R$24</f>
         <v>2.2953781831171081</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26:Q33" si="16">(2*SIN(8*P25))/3+(3*COS(P25))/4</f>
+        <f t="shared" ref="Q26:Q33" si="17">(2*SIN(8*P25))/3+(3*COS(P25))/4</f>
         <v>-0.97284524373180514</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:S33" si="17">ABS(P26-P25)</f>
+        <f t="shared" ref="S26:S33" si="18">ABS(P26-P25)</f>
         <v>0.19456904874636116</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" ref="T26:T33" si="18">IF(S26&gt;0.001,"no","yes")</f>
+        <f t="shared" ref="T26:T33" si="19">IF(S26&gt;0.001,"no","yes")</f>
         <v>no</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.457143113048549</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.80882464965720402</v>
       </c>
       <c r="S27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.16176492993144098</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>no</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.477008501198195</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-9.9326940748230952E-2</v>
       </c>
       <c r="S28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9865388149646002E-2</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>no</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.485363301176486</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-4.1773999891453806E-2</v>
       </c>
       <c r="S29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.3547999782909166E-3</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>no</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.4896721940427056</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-2.1544464331097135E-2</v>
       </c>
       <c r="S30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.3088928662196047E-3</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>no</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.4920898701927459</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.2088380750201799E-2</v>
       </c>
       <c r="S31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.4176761500402932E-3</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>no</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.4935060554165727</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-7.0809261191338013E-3</v>
       </c>
       <c r="S32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4161852238268047E-3</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>no</v>
       </c>
     </row>
     <row r="33" spans="16:20" x14ac:dyDescent="0.25">
       <c r="P33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.4943557596950154</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-4.2485213922136555E-3</v>
       </c>
       <c r="S33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.4970427844277552E-4</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>yes</v>
       </c>
     </row>
@@ -3139,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5774E83A-442C-4DDC-9383-356AB19081D8}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,15 +3205,15 @@
         <v>-0.5</v>
       </c>
       <c r="S2">
-        <f>(2*SIN(8*P2))/3+(3*COS(P2))/4</f>
+        <f t="shared" ref="S2:U3" si="0">(2*SIN(8*P2))/3+(3*COS(P2))/4</f>
         <v>-0.25434543501448303</v>
       </c>
       <c r="T2">
-        <f>(2*SIN(8*Q2))/3+(3*COS(Q2))/4</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="U2">
-        <f>(2*SIN(8*R2))/3+(3*COS(R2))/4</f>
+        <f t="shared" si="0"/>
         <v>1.1627219182897317</v>
       </c>
       <c r="V2">
@@ -3233,7 +3233,7 @@
         <v>-3.5</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B18" si="0">(2*SIN(8*A3))/3+(3*COS(A3))/4</f>
+        <f t="shared" ref="B3:B18" si="1">(2*SIN(8*A3))/3+(3*COS(A3))/4</f>
         <v>-0.88294637434000989</v>
       </c>
       <c r="P3">
@@ -3249,19 +3249,19 @@
         <v>-0.75</v>
       </c>
       <c r="S3">
-        <f>(2*SIN(8*P3))/3+(3*COS(P3))/4</f>
+        <f t="shared" si="0"/>
         <v>-0.25434543501448303</v>
       </c>
       <c r="T3">
-        <f>(2*SIN(8*Q3))/3+(3*COS(Q3))/4</f>
+        <f t="shared" si="0"/>
         <v>1.1627219182897317</v>
       </c>
       <c r="U3">
-        <f>(2*SIN(8*R3))/3+(3*COS(R3))/4</f>
+        <f t="shared" si="0"/>
         <v>0.73504365045464959</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V10" si="1">ABS(P3-R3)</f>
+        <f t="shared" ref="V3:V10" si="2">ABS(P3-R3)</f>
         <v>0.25</v>
       </c>
       <c r="W3" t="str">
@@ -3294,59 +3294,59 @@
         <v>-3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.13877546444591815</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P12" si="2">IF(S3*U3&gt;0,R3,P3)</f>
+        <f t="shared" ref="P4:P10" si="3">IF(S3*U3&gt;0,R3,P3)</f>
         <v>-1</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q12" si="3">IF(T3*U3&gt;0,R3,Q3)</f>
+        <f t="shared" ref="Q4:Q10" si="4">IF(T3*U3&gt;0,R3,Q3)</f>
         <v>-0.75</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R10" si="4">(P4+Q4)/2</f>
+        <f t="shared" ref="R4:R10" si="5">(P4+Q4)/2</f>
         <v>-0.875</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:U12" si="5">(2*SIN(8*P4))/3+(3*COS(P4))/4</f>
+        <f t="shared" ref="S4:U10" si="6">(2*SIN(8*P4))/3+(3*COS(P4))/4</f>
         <v>-0.25434543501448303</v>
       </c>
       <c r="T4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.73504365045464959</v>
       </c>
       <c r="U4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2756577809967722E-2</v>
       </c>
       <c r="V4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" ref="W4:W14" si="6">IF(V4&gt;0.001,"no","yes")</f>
+        <f t="shared" ref="W4:W11" si="7">IF(V4&gt;0.001,"no","yes")</f>
         <v>no</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4" si="7">X3-Y4/Z4</f>
+        <f t="shared" ref="X4" si="8">X3-Y4/Z4</f>
         <v>-2.0285310452364462</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y25" si="8">(2*SIN(8*X3))/3+(3*COS(X3))/4</f>
+        <f t="shared" ref="Y4:Y5" si="9">(2*SIN(8*X3))/3+(3*COS(X3))/4</f>
         <v>-5.4821310226270681E-3</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z11" si="9">(16*COS(8*X3))/3-(3*SIN(X3))/4</f>
+        <f t="shared" ref="Z4" si="10">(16*COS(8*X3))/3-(3*SIN(X3))/4</f>
         <v>-3.9832768736863153</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA11" si="10">ABS(X4-X3)</f>
+        <f t="shared" ref="AA4" si="11">ABS(X4-X3)</f>
         <v>1.3762867097795173E-3</v>
       </c>
       <c r="AB4" t="str">
-        <f t="shared" ref="AB4:AB25" si="11">IF(AA4&gt;0.001,"no","yes")</f>
+        <f t="shared" ref="AB4:AB5" si="12">IF(AA4&gt;0.001,"no","yes")</f>
         <v>no</v>
       </c>
     </row>
@@ -3355,59 +3355,59 @@
         <v>-2.5</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2094878788119521</v>
       </c>
       <c r="P5">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>-0.875</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>-0.9375</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>-0.25434543501448303</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="6"/>
+        <v>4.2756577809967722E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="6"/>
+        <v>-0.18147951153046782</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>-0.875</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="4"/>
-        <v>-0.9375</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="5"/>
-        <v>-0.25434543501448303</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="5"/>
-        <v>4.2756577809967722E-2</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="5"/>
-        <v>-0.18147951153046782</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>no</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5:X14" si="12">X4-Y5/Z5</f>
+        <f t="shared" ref="X5" si="13">X4-Y5/Z5</f>
         <v>-2.0285359802440976</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.9517073693575693E-5</v>
       </c>
       <c r="Z5">
-        <f t="shared" ref="Z5:Z14" si="13">(16*COS(8*X4))/3-(3*SIN(X4))/4</f>
+        <f t="shared" ref="Z5" si="14">(16*COS(8*X4))/3-(3*SIN(X4))/4</f>
         <v>-3.9548213646281467</v>
       </c>
       <c r="AA5">
-        <f t="shared" ref="AA5:AA14" si="14">ABS(X5-X4)</f>
+        <f t="shared" ref="AA5" si="15">ABS(X5-X4)</f>
         <v>4.9350076514187435E-6</v>
       </c>
       <c r="AB5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>yes</v>
       </c>
     </row>
@@ -3416,39 +3416,39 @@
         <v>-2</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.12017458296697994</v>
       </c>
       <c r="P6">
+        <f t="shared" si="3"/>
+        <v>-0.9375</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>-0.875</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>-0.90625</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>-0.18147951153046782</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>4.2756577809967722E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>-8.6194036373486382E-2</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="2"/>
-        <v>-0.9375</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>-0.875</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="4"/>
-        <v>-0.90625</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="5"/>
-        <v>-0.18147951153046782</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="5"/>
-        <v>4.2756577809967722E-2</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="5"/>
-        <v>-8.6194036373486382E-2</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>no</v>
       </c>
     </row>
@@ -3457,39 +3457,39 @@
         <v>-1.5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41076817991773379</v>
       </c>
       <c r="P7">
+        <f t="shared" si="3"/>
+        <v>-0.90625</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>-0.875</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>-0.890625</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>-8.6194036373486382E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>4.2756577809967722E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>-2.5540746765682187E-2</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="2"/>
-        <v>-0.90625</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>-0.875</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="4"/>
-        <v>-0.890625</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="5"/>
-        <v>-8.6194036373486382E-2</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="5"/>
-        <v>4.2756577809967722E-2</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="5"/>
-        <v>-2.5540746765682187E-2</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="1"/>
         <v>1.5625E-2</v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>no</v>
       </c>
     </row>
@@ -3498,39 +3498,39 @@
         <v>-1</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.25434543501448303</v>
       </c>
       <c r="P8">
+        <f t="shared" si="3"/>
+        <v>-0.890625</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>-0.875</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>-0.8828125</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>-2.5540746765682187E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>4.2756577809967722E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>7.707653023461658E-3</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="2"/>
-        <v>-0.890625</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>-0.875</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="4"/>
-        <v>-0.8828125</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="5"/>
-        <v>-2.5540746765682187E-2</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="5"/>
-        <v>4.2756577809967722E-2</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="5"/>
-        <v>7.707653023461658E-3</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="1"/>
         <v>7.8125E-3</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>no</v>
       </c>
     </row>
@@ -3539,39 +3539,39 @@
         <v>-0.5</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1627219182897317</v>
       </c>
       <c r="P9">
+        <f t="shared" si="3"/>
+        <v>-0.890625</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>-0.8828125</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>-0.88671875</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>-2.5540746765682187E-2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="6"/>
+        <v>7.707653023461658E-3</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>-9.1488088540711554E-3</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="2"/>
-        <v>-0.890625</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>-0.8828125</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="4"/>
-        <v>-0.88671875</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="5"/>
-        <v>-2.5540746765682187E-2</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="5"/>
-        <v>7.707653023461658E-3</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="5"/>
-        <v>-9.1488088540711554E-3</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="1"/>
         <v>3.90625E-3</v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>no</v>
       </c>
     </row>
@@ -3580,39 +3580,39 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="P10">
+        <f t="shared" si="3"/>
+        <v>-0.88671875</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>-0.8828125</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>-0.884765625</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>-9.1488088540711554E-3</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="6"/>
+        <v>7.707653023461658E-3</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>-7.7776147831082332E-4</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="2"/>
-        <v>-0.88671875</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>-0.8828125</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="4"/>
-        <v>-0.884765625</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="5"/>
-        <v>-9.1488088540711554E-3</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="5"/>
-        <v>7.707653023461658E-3</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="5"/>
-        <v>-7.7776147831082332E-4</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="1"/>
         <v>1.953125E-3</v>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>no</v>
       </c>
     </row>
@@ -3621,39 +3621,39 @@
         <v>0.5</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15365192454582743</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11:P14" si="15">IF(S10*U10&gt;0,R10,P10)</f>
+        <f t="shared" ref="P11" si="16">IF(S10*U10&gt;0,R10,P10)</f>
         <v>-0.884765625</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11:Q14" si="16">IF(T10*U10&gt;0,R10,Q10)</f>
+        <f t="shared" ref="Q11" si="17">IF(T10*U10&gt;0,R10,Q10)</f>
         <v>-0.8828125</v>
       </c>
       <c r="R11">
-        <f t="shared" ref="R11:R14" si="17">(P11+Q11)/2</f>
+        <f t="shared" ref="R11" si="18">(P11+Q11)/2</f>
         <v>-0.8837890625</v>
       </c>
       <c r="S11">
-        <f t="shared" ref="S11:S14" si="18">(2*SIN(8*P11))/3+(3*COS(P11))/4</f>
+        <f t="shared" ref="S11" si="19">(2*SIN(8*P11))/3+(3*COS(P11))/4</f>
         <v>-7.7776147831082332E-4</v>
       </c>
       <c r="T11">
-        <f t="shared" ref="T11:T14" si="19">(2*SIN(8*Q11))/3+(3*COS(Q11))/4</f>
+        <f t="shared" ref="T11" si="20">(2*SIN(8*Q11))/3+(3*COS(Q11))/4</f>
         <v>7.707653023461658E-3</v>
       </c>
       <c r="U11">
-        <f t="shared" ref="U11:U14" si="20">(2*SIN(8*R11))/3+(3*COS(R11))/4</f>
+        <f t="shared" ref="U11" si="21">(2*SIN(8*R11))/3+(3*COS(R11))/4</f>
         <v>3.4507616860117163E-3</v>
       </c>
       <c r="V11">
-        <f t="shared" ref="V11:V14" si="21">ABS(P11-R11)</f>
+        <f t="shared" ref="V11" si="22">ABS(P11-R11)</f>
         <v>9.765625E-4</v>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>yes</v>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0647988938166928</v>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
         <v>1.5</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.30466237741617946</v>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.50404567185373372</v>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
         <v>2.5</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7724554915514776E-3</v>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3462132804547502</v>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
         <v>3.5</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.52173865659618457</v>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.12261492815324859</v>
       </c>
     </row>
@@ -3762,73 +3762,73 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P26">
-        <f t="shared" ref="P26:P33" si="22">P25-Q26/$R$24</f>
+        <f t="shared" ref="P26:P29" si="23">P25-Q26/$R$24</f>
         <v>-0.907669468340777</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26:Q33" si="23">(2*SIN(8*P25))/3+(3*COS(P25))/4</f>
+        <f t="shared" ref="Q26:Q29" si="24">(2*SIN(8*P25))/3+(3*COS(P25))/4</f>
         <v>-0.20730722328163215</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:S33" si="24">ABS(P26-P25)</f>
+        <f t="shared" ref="S26:S29" si="25">ABS(P26-P25)</f>
         <v>4.1461444656326396E-2</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" ref="T26:T33" si="25">IF(S26&gt;0.001,"no","yes")</f>
+        <f t="shared" ref="T26:T29" si="26">IF(S26&gt;0.001,"no","yes")</f>
         <v>no</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.8894101583981483</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-9.1296549713143493E-2</v>
       </c>
       <c r="S27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.8259309942628699E-2</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>no</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.88531146343762479</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.0493474802617317E-2</v>
       </c>
       <c r="S28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.0986949605235079E-3</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>no</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.88468570274241465</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-3.1288034760504346E-3</v>
       </c>
       <c r="S29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.2576069521014244E-4</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>yes</v>
       </c>
     </row>
